--- a/Automatizacion_Banrural/Data/Config.xlsx
+++ b/Automatizacion_Banrural/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Propa34653\Desktop\EY\Banrural\Automatizacion_Banrural\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD64DC7-3605-42B8-8173-840C2B03805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="3165" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,15 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>Credencial Cobis CCA</t>
+  </si>
+  <si>
+    <t>Credencial Cobis</t>
+  </si>
+  <si>
+    <t>Predeterminad (Clásica)</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,7 +512,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -1574,7 +1583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
@@ -2683,10 +2692,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -2730,7 +2739,17 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
